--- a/Study 3/Shocks/GCAM/CP_EI - 2065.xlsx
+++ b/Study 3/Shocks/GCAM/CP_EI - 2065.xlsx
@@ -11442,7 +11442,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.09060755591148696</v>
+        <v>0.09060755591148698</v>
       </c>
     </row>
     <row r="4">
@@ -11922,7 +11922,7 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.01646398613092655</v>
+        <v>0.01646398613092656</v>
       </c>
     </row>
     <row r="16">
@@ -12082,7 +12082,7 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.06831543090899768</v>
+        <v>0.06831543090899769</v>
       </c>
     </row>
     <row r="20">
@@ -12242,7 +12242,7 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>0.2155818305704449</v>
+        <v>0.215581830570445</v>
       </c>
     </row>
     <row r="24">
@@ -12402,7 +12402,7 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.001977251826657881</v>
+        <v>0.001977251826657882</v>
       </c>
     </row>
     <row r="28">
@@ -12562,7 +12562,7 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.006079889428555683</v>
+        <v>0.006079889428555685</v>
       </c>
     </row>
     <row r="32">
@@ -12882,7 +12882,7 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0.410088262149347</v>
+        <v>0.4100882621493471</v>
       </c>
     </row>
     <row r="40">
